--- a/medicine/Psychotrope/Bruichladdich/Bruichladdich.xlsx
+++ b/medicine/Psychotrope/Bruichladdich/Bruichladdich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Bruichladdich est une distillerie de whisky située sur l’île d'Islay sur la côte ouest de l’Écosse. C’est une des neuf[1] distilleries de l'île et la seule qui n’appartenait pas à un grand groupe, avant son rachat en 2012 par Rémy Cointreau[2]. Elle est aussi la seule distillerie à posséder sa propre chaîne d'embouteillage.
+Bruichladdich est une distillerie de whisky située sur l’île d'Islay sur la côte ouest de l’Écosse. C’est une des neuf distilleries de l'île et la seule qui n’appartenait pas à un grand groupe, avant son rachat en 2012 par Rémy Cointreau. Elle est aussi la seule distillerie à posséder sa propre chaîne d'embouteillage.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>La distillerie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bruichladdich a été fondée en 1881 par les frères Harvey sur la partie occidentale d’Islay. Après une longue histoire la distillerie a fermé en 1994. En 2001, un groupe de passionnés emmenés par l’embouteilleur indépendant Murray MacDavid reprend la distillerie et relance la production.
 L'actuel chef de la distillerie se nomme Adam Hannett. Il succède en 2015 à Jim Mc Ewan, élu plusieurs fois « distillateur de l'année ».
@@ -545,7 +559,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bruichladdich produit un single malt moins typé que les autres malts d’Islay. Il est néanmoins marqué par la présence d’arômes fruités remarquables. De très nombreuses versions de ce single malt sont en vente actuellement :
 Bruichladdich 12 ans
@@ -595,7 +611,9 @@
           <t>Publicité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La distillerie est le sponsor de l'écurie Greaves Motorsport depuis 2006, cette écurie participe au Championnat du monde d'endurance FIA et a couru dans le passé sous le nom de Team Bruichladdich.
 </t>
@@ -626,7 +644,9 @@
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un Bruichladdich que propose Francis Urquhart à la journaliste Mattie Storin, venue l'interviewer, dans la version britannique de House of Cards.
 </t>
